--- a/ACG/ACG/map_.xlsx
+++ b/ACG/ACG/map_.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\チーム制作GA1BA\team\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\荒巻\チーム\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="94">
   <si>
     <t>00</t>
     <phoneticPr fontId="1"/>
@@ -154,6 +154,226 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>30</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -162,59 +382,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>02</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
+    <t>39</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>33</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -222,171 +398,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>36</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04</t>
+    <t>30</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -915,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="BN9" sqref="BN9"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="BL7" sqref="BL7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1109,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>0</v>
@@ -1208,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="CR1" s="1" t="s">
         <v>0</v>
@@ -1498,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="CN2" s="1" t="s">
         <v>0</v>
@@ -1608,41 +1620,41 @@
         <v>0</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="AI3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="AM3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>0</v>
@@ -1698,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>0</v>
@@ -1716,7 +1728,7 @@
         <v>6</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>0</v>
@@ -1955,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>22</v>
@@ -1997,10 +2009,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="BF4" s="1" t="s">
         <v>0</v>
@@ -2015,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>0</v>
@@ -2084,22 +2096,22 @@
         <v>0</v>
       </c>
       <c r="CG4" s="1" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="CH4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CI4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="CL4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="CM4" s="1" t="s">
         <v>25</v>
@@ -2203,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>0</v>
@@ -2230,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>0</v>
@@ -2293,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>0</v>
@@ -2302,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="BF5" s="1" t="s">
         <v>0</v>
@@ -2314,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="BJ5" s="1" t="s">
         <v>3</v>
@@ -2329,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="BO5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>0</v>
@@ -2383,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="CF5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="CG5" s="1" t="s">
         <v>20</v>
@@ -2490,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>0</v>
@@ -2595,7 +2607,7 @@
         <v>23</v>
       </c>
       <c r="BB6" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>0</v>
@@ -2616,16 +2628,16 @@
         <v>0</v>
       </c>
       <c r="BI6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BK6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BJ6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK6" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="BL6" s="1" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="BM6" s="1" t="s">
         <v>0</v>
@@ -2637,16 +2649,16 @@
         <v>0</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BR6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BT6" s="1" t="s">
         <v>0</v>
@@ -2667,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>0</v>
@@ -2694,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="CI6" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>0</v>
@@ -2792,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>0</v>
@@ -2807,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>0</v>
@@ -2906,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BF7" s="1" t="s">
         <v>0</v>
@@ -2924,10 +2936,10 @@
         <v>22</v>
       </c>
       <c r="BK7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BM7" s="1" t="s">
         <v>0</v>
@@ -2948,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="BT7" s="1" t="s">
         <v>0</v>
@@ -2978,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="CC7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="CD7" s="1" t="s">
         <v>0</v>
@@ -2996,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="CI7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>0</v>
@@ -3091,16 +3103,16 @@
         <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>0</v>
@@ -3109,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>0</v>
@@ -3148,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AL8" s="1" t="s">
         <v>0</v>
@@ -3157,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO8" s="1" t="s">
         <v>20</v>
@@ -3169,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="AR8" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AS8" s="1" t="s">
         <v>28</v>
@@ -3187,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>0</v>
@@ -3238,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="BO8" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="BP8" s="1" t="s">
         <v>31</v>
@@ -3250,16 +3262,16 @@
         <v>0</v>
       </c>
       <c r="BS8" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="BT8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BU8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BV8" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="BW8" s="1" t="s">
         <v>0</v>
@@ -3298,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="CI8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="CJ8" s="1" t="s">
         <v>0</v>
@@ -3381,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>0</v>
@@ -3390,16 +3402,16 @@
         <v>5</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>12</v>
@@ -3426,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AD9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="AF9" s="1" t="s">
         <v>0</v>
@@ -3441,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI9" s="1" t="s">
         <v>13</v>
@@ -3450,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AL9" s="1" t="s">
         <v>0</v>
@@ -3483,61 +3495,61 @@
         <v>0</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AW9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="AY9" s="1" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="BA9" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="BB9" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="BD9" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="BE9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BF9" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BG9" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BH9" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="BJ9" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BK9" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BM9" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="BO9" s="1" t="s">
         <v>22</v>
@@ -3549,13 +3561,13 @@
         <v>0</v>
       </c>
       <c r="BR9" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="BS9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="BT9" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="BU9" s="1" t="s">
         <v>24</v>
@@ -3567,19 +3579,19 @@
         <v>0</v>
       </c>
       <c r="BX9" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="BY9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BZ9" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="CA9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CB9" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="CC9" s="1" t="s">
         <v>24</v>
@@ -3603,13 +3615,13 @@
         <v>24</v>
       </c>
       <c r="CJ9" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="CK9" s="1" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="CL9" s="1" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="CM9" s="1" t="s">
         <v>24</v>
@@ -3624,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="CQ9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="CR9" s="1" t="s">
         <v>0</v>
@@ -3911,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="CL10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="CM10" s="1" t="s">
         <v>1</v>

--- a/ACG/ACG/map_.xlsx
+++ b/ACG/ACG/map_.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="26">
   <si>
     <t>00</t>
     <phoneticPr fontId="1"/>
@@ -70,11 +70,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>03</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>02</t>
+    <t>04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>06</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -82,23 +102,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>14</t>
+    <t>01</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>06</t>
+    <t>27</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -110,7 +118,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>00</t>
+    <t>02</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -119,286 +127,6 @@
   </si>
   <si>
     <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>36</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>39</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>33</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -480,7 +208,91 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -927,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="BL7" sqref="BL7"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -983,23 +795,23 @@
         <v>0</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="V1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>0</v>
@@ -1121,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>0</v>
@@ -1220,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="CR1" s="1" t="s">
         <v>0</v>
@@ -1285,23 +1097,23 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="V2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1333,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>0</v>
@@ -1423,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>0</v>
@@ -1510,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="CN2" s="1" t="s">
         <v>0</v>
@@ -1522,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="CR2" s="1" t="s">
         <v>0</v>
@@ -1587,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>0</v>
@@ -1602,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>0</v>
@@ -1620,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="1" t="s">
         <v>0</v>
@@ -1635,25 +1447,25 @@
         <v>0</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>0</v>
@@ -1674,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1" t="s">
         <v>0</v>
@@ -1710,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>0</v>
@@ -1725,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="1" t="s">
         <v>0</v>
@@ -1812,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="CM3" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="CN3" s="1" t="s">
         <v>0</v>
@@ -1824,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="CR3" s="1" t="s">
         <v>0</v>
@@ -1889,7 +1701,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>0</v>
@@ -1904,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>0</v>
@@ -1916,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH4" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>0</v>
@@ -1967,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="1" t="s">
         <v>0</v>
@@ -2009,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="BF4" s="1" t="s">
         <v>0</v>
@@ -2030,7 +1842,7 @@
         <v>12</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="BL4" s="1" t="s">
         <v>0</v>
@@ -2096,25 +1908,25 @@
         <v>0</v>
       </c>
       <c r="CG4" s="1" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="CH4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CI4" s="1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="CJ4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="CL4" s="1" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="CM4" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="CN4" s="1" t="s">
         <v>0</v>
@@ -2126,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="CQ4" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="CR4" s="1" t="s">
         <v>0</v>
@@ -2191,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>0</v>
@@ -2203,25 +2015,25 @@
         <v>0</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>0</v>
@@ -2239,16 +2051,16 @@
         <v>0</v>
       </c>
       <c r="AF5" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>0</v>
@@ -2257,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>0</v>
@@ -2269,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="1" t="s">
         <v>0</v>
@@ -2278,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1" t="s">
         <v>0</v>
@@ -2305,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>0</v>
@@ -2314,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="BF5" s="1" t="s">
         <v>0</v>
@@ -2326,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BK5" s="1" t="s">
         <v>0</v>
@@ -2341,13 +2153,13 @@
         <v>0</v>
       </c>
       <c r="BN5" s="1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BO5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="BQ5" s="1" t="s">
         <v>0</v>
@@ -2395,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="CF5" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="CG5" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="CH5" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="CI5" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="CJ5" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="CL5" s="1" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="CM5" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="CN5" s="1" t="s">
         <v>0</v>
@@ -2428,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="CQ5" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="CR5" s="1" t="s">
         <v>0</v>
@@ -2493,148 +2305,148 @@
         <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="V6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="BK6" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="BL6" s="1" t="s">
         <v>0</v>
@@ -2649,16 +2461,16 @@
         <v>0</v>
       </c>
       <c r="BP6" s="1" t="s">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="BQ6" s="1" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="BR6" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="1" t="s">
         <v>0</v>
@@ -2679,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="BZ6" s="1" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="CA6" s="1" t="s">
         <v>0</v>
@@ -2706,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="CI6" s="1" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="CJ6" s="1" t="s">
         <v>0</v>
@@ -2718,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="CM6" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="CN6" s="1" t="s">
         <v>0</v>
@@ -2730,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="CQ6" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="CR6" s="1" t="s">
         <v>0</v>
@@ -2795,23 +2607,23 @@
         <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="V7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2819,16 +2631,16 @@
         <v>0</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>0</v>
@@ -2843,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG7" s="1" t="s">
         <v>0</v>
@@ -2852,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1" t="s">
         <v>0</v>
@@ -2861,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="AL7" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM7" s="1" t="s">
         <v>0</v>
@@ -2882,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="1" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1" t="s">
         <v>0</v>
@@ -2918,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="BE7" s="1" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="BF7" s="1" t="s">
         <v>0</v>
@@ -2933,10 +2745,10 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="BK7" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BL7" s="1" t="s">
         <v>0</v>
@@ -2951,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="BP7" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BQ7" s="1" t="s">
         <v>0</v>
@@ -2960,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="BS7" s="1" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="1" t="s">
         <v>0</v>
@@ -2990,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="CC7" s="1" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="CD7" s="1" t="s">
         <v>0</v>
@@ -3008,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="CI7" s="1" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="CJ7" s="1" t="s">
         <v>0</v>
@@ -3020,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="CM7" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="CN7" s="1" t="s">
         <v>0</v>
@@ -3032,7 +2844,7 @@
         <v>0</v>
       </c>
       <c r="CQ7" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="CR7" s="1" t="s">
         <v>0</v>
@@ -3094,26 +2906,26 @@
         <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="V8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3121,209 +2933,209 @@
         <v>0</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Z8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BK8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="BF8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BP8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="BQ8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BT8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BV8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BW8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="CD8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="CJ8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="CN8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3334,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="CQ8" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="CR8" s="1" t="s">
         <v>0</v>
@@ -3393,239 +3205,239 @@
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="V9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="1" t="s">
+      <c r="BK9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BD9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BE9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BJ9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BN9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BO9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BP9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BQ9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BS9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BT9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BU9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="BV9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BW9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BY9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="CA9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CC9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="CD9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="CE9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="CF9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="CJ9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CL9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CM9" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="CN9" s="1" t="s">
         <v>0</v>
       </c>
@@ -3636,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="CQ9" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="CR9" s="1" t="s">
         <v>0</v>
@@ -3923,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="CL10" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="CM10" s="1" t="s">
         <v>1</v>
@@ -3958,84 +3770,124 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="CV5:XFD9 CR3:XFD4 CQ3:CQ8 A10:XFD1048576 A1:O9 Q3:CP4 Q1:XFD2 Q5:CN9">
-    <cfRule type="beginsWith" dxfId="23" priority="19" operator="beginsWith" text="4">
+  <conditionalFormatting sqref="CV5:XFD9 CR3:XFD4 CQ3:CQ8 A10:XFD1048576 CM3:CP4 CM5:CN9 CM2:XFD2 A1:O9 Q1:T9 AG1:AG9 AH2:CL9 AH1:XFD1 V1:AE9">
+    <cfRule type="beginsWith" dxfId="35" priority="31" operator="beginsWith" text="4">
       <formula>LEFT(A1,LEN("4"))="4"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="20" operator="beginsWith" text="3">
+    <cfRule type="beginsWith" dxfId="34" priority="32" operator="beginsWith" text="3">
       <formula>LEFT(A1,LEN("3"))="3"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="21" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="33" priority="33" operator="beginsWith" text="2">
       <formula>LEFT(A1,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="00">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="00">
       <formula>NOT(ISERROR(SEARCH("00",A1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="23" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="31" priority="35" operator="beginsWith" text="0">
       <formula>LEFT(A1,LEN("0"))="0"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="24" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="30" priority="36" operator="beginsWith" text="1">
       <formula>LEFT(A1,LEN("1"))="1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO5:CP6 CR5:CU6">
-    <cfRule type="beginsWith" dxfId="17" priority="13" operator="beginsWith" text="4">
+    <cfRule type="beginsWith" dxfId="29" priority="25" operator="beginsWith" text="4">
       <formula>LEFT(CO5,LEN("4"))="4"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="14" operator="beginsWith" text="3">
+    <cfRule type="beginsWith" dxfId="28" priority="26" operator="beginsWith" text="3">
       <formula>LEFT(CO5,LEN("3"))="3"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="15" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="27" priority="27" operator="beginsWith" text="2">
       <formula>LEFT(CO5,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="00">
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="00">
       <formula>NOT(ISERROR(SEARCH("00",CO5)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="17" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="25" priority="29" operator="beginsWith" text="0">
       <formula>LEFT(CO5,LEN("0"))="0"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="18" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="24" priority="30" operator="beginsWith" text="1">
       <formula>LEFT(CO5,LEN("1"))="1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO9:CU9 CO7:CP8 CR7:CU8">
-    <cfRule type="beginsWith" dxfId="11" priority="7" operator="beginsWith" text="4">
+    <cfRule type="beginsWith" dxfId="23" priority="19" operator="beginsWith" text="4">
       <formula>LEFT(CO7,LEN("4"))="4"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="8" operator="beginsWith" text="3">
+    <cfRule type="beginsWith" dxfId="22" priority="20" operator="beginsWith" text="3">
       <formula>LEFT(CO7,LEN("3"))="3"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="9" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="21" priority="21" operator="beginsWith" text="2">
       <formula>LEFT(CO7,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="00">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="00">
       <formula>NOT(ISERROR(SEARCH("00",CO7)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="11" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="19" priority="23" operator="beginsWith" text="0">
       <formula>LEFT(CO7,LEN("0"))="0"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="12" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="18" priority="24" operator="beginsWith" text="1">
       <formula>LEFT(CO7,LEN("1"))="1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P9">
-    <cfRule type="beginsWith" dxfId="5" priority="1" operator="beginsWith" text="4">
+    <cfRule type="beginsWith" dxfId="17" priority="13" operator="beginsWith" text="4">
       <formula>LEFT(P1,LEN("4"))="4"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" operator="beginsWith" text="3">
+    <cfRule type="beginsWith" dxfId="16" priority="14" operator="beginsWith" text="3">
       <formula>LEFT(P1,LEN("3"))="3"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="15" priority="15" operator="beginsWith" text="2">
       <formula>LEFT(P1,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="00">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="00">
       <formula>NOT(ISERROR(SEARCH("00",P1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="13" priority="17" operator="beginsWith" text="0">
       <formula>LEFT(P1,LEN("0"))="0"</formula>
     </cfRule>
+    <cfRule type="beginsWith" dxfId="12" priority="18" operator="beginsWith" text="1">
+      <formula>LEFT(P1,LEN("1"))="1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U9">
+    <cfRule type="beginsWith" dxfId="11" priority="7" operator="beginsWith" text="4">
+      <formula>LEFT(U1,LEN("4"))="4"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="10" priority="8" operator="beginsWith" text="3">
+      <formula>LEFT(U1,LEN("3"))="3"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="9" priority="9" operator="beginsWith" text="2">
+      <formula>LEFT(U1,LEN("2"))="2"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="00">
+      <formula>NOT(ISERROR(SEARCH("00",U1)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="7" priority="11" operator="beginsWith" text="0">
+      <formula>LEFT(U1,LEN("0"))="0"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="6" priority="12" operator="beginsWith" text="1">
+      <formula>LEFT(U1,LEN("1"))="1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF1:AF9">
+    <cfRule type="beginsWith" dxfId="5" priority="1" operator="beginsWith" text="4">
+      <formula>LEFT(AF1,LEN("4"))="4"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="4" priority="2" operator="beginsWith" text="3">
+      <formula>LEFT(AF1,LEN("3"))="3"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="2">
+      <formula>LEFT(AF1,LEN("2"))="2"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="00">
+      <formula>NOT(ISERROR(SEARCH("00",AF1)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" operator="beginsWith" text="0">
+      <formula>LEFT(AF1,LEN("0"))="0"</formula>
+    </cfRule>
     <cfRule type="beginsWith" dxfId="0" priority="6" operator="beginsWith" text="1">
-      <formula>LEFT(P1,LEN("1"))="1"</formula>
+      <formula>LEFT(AF1,LEN("1"))="1"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ACG/ACG/map_.xlsx
+++ b/ACG/ACG/map_.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\荒巻\チーム\ACG\ACG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\team制作\ACG\ACG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="19">
   <si>
     <t>00</t>
     <phoneticPr fontId="1"/>
@@ -43,30 +43,6 @@
   </si>
   <si>
     <t>06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>14</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -106,7 +82,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>27</t>
+    <t>40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -114,19 +98,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02</t>
+    <t>00</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -739,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -777,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
@@ -795,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>0</v>
@@ -810,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>0</v>
@@ -843,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>0</v>
@@ -861,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM1" s="1" t="s">
         <v>0</v>
@@ -933,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>0</v>
@@ -1032,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="CR1" s="1" t="s">
         <v>0</v>
@@ -1079,164 +1051,164 @@
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="BK2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="CN2" s="1" t="s">
         <v>0</v>
@@ -1334,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CR2" s="1" t="s">
         <v>0</v>
@@ -1381,262 +1353,262 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="CN3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="CR3" s="1" t="s">
         <v>0</v>
@@ -1683,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>0</v>
@@ -1701,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>0</v>
@@ -1716,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>0</v>
@@ -1749,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="1" t="s">
         <v>0</v>
@@ -1767,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>0</v>
@@ -1839,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BK4" s="1" t="s">
         <v>0</v>
@@ -1926,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="CM4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="CN4" s="1" t="s">
         <v>0</v>
@@ -1938,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="CQ4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CR4" s="1" t="s">
         <v>0</v>
@@ -1985,251 +1957,251 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BK5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="CN5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2240,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="CQ5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CR5" s="1" t="s">
         <v>0</v>
@@ -2287,164 +2259,164 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="BK6" s="1" t="s">
         <v>0</v>
       </c>
@@ -2530,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="CM6" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="CN6" s="1" t="s">
         <v>0</v>
@@ -2542,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="CQ6" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CR6" s="1" t="s">
         <v>0</v>
@@ -2589,164 +2561,164 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="BK7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2832,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="CM7" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="CN7" s="1" t="s">
         <v>0</v>
@@ -2844,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="CQ7" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CR7" s="1" t="s">
         <v>0</v>
@@ -2891,164 +2863,164 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="BK8" s="1" t="s">
         <v>0</v>
       </c>
@@ -3134,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="CM8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="CN8" s="1" t="s">
         <v>0</v>
@@ -3146,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="CQ8" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="CR8" s="1" t="s">
         <v>0</v>
@@ -3169,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>0</v>
@@ -3193,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>0</v>
@@ -3208,250 +3180,250 @@
         <v>0</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BK9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="CM9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="CN9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BK9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="CN9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CP9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="CR9" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="CS9" s="1" t="s">
         <v>0</v>
@@ -3735,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="CL10" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="CM10" s="1" t="s">
         <v>1</v>
@@ -3770,7 +3742,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="CV5:XFD9 CR3:XFD4 CQ3:CQ8 A10:XFD1048576 CM3:CP4 CM5:CN9 CM2:XFD2 A1:O9 Q1:T9 AG1:AG9 AH2:CL9 AH1:XFD1 V1:AE9">
+  <conditionalFormatting sqref="CV5:XFD9 CR3:XFD4 CQ3:CQ8 A10:XFD1048576 CM3:CP4 CM5:CN9 CM2:XFD2 BH2:CL9 BH1:XFD1 A1:BG9">
     <cfRule type="beginsWith" dxfId="35" priority="31" operator="beginsWith" text="4">
       <formula>LEFT(A1,LEN("4"))="4"</formula>
     </cfRule>
@@ -3830,66 +3802,6 @@
       <formula>LEFT(CO7,LEN("1"))="1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P9">
-    <cfRule type="beginsWith" dxfId="17" priority="13" operator="beginsWith" text="4">
-      <formula>LEFT(P1,LEN("4"))="4"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="16" priority="14" operator="beginsWith" text="3">
-      <formula>LEFT(P1,LEN("3"))="3"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="15" operator="beginsWith" text="2">
-      <formula>LEFT(P1,LEN("2"))="2"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="00">
-      <formula>NOT(ISERROR(SEARCH("00",P1)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="17" operator="beginsWith" text="0">
-      <formula>LEFT(P1,LEN("0"))="0"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="18" operator="beginsWith" text="1">
-      <formula>LEFT(P1,LEN("1"))="1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U9">
-    <cfRule type="beginsWith" dxfId="11" priority="7" operator="beginsWith" text="4">
-      <formula>LEFT(U1,LEN("4"))="4"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="8" operator="beginsWith" text="3">
-      <formula>LEFT(U1,LEN("3"))="3"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="9" operator="beginsWith" text="2">
-      <formula>LEFT(U1,LEN("2"))="2"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="00">
-      <formula>NOT(ISERROR(SEARCH("00",U1)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="11" operator="beginsWith" text="0">
-      <formula>LEFT(U1,LEN("0"))="0"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="12" operator="beginsWith" text="1">
-      <formula>LEFT(U1,LEN("1"))="1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF1:AF9">
-    <cfRule type="beginsWith" dxfId="5" priority="1" operator="beginsWith" text="4">
-      <formula>LEFT(AF1,LEN("4"))="4"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="2" operator="beginsWith" text="3">
-      <formula>LEFT(AF1,LEN("3"))="3"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="2">
-      <formula>LEFT(AF1,LEN("2"))="2"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="00">
-      <formula>NOT(ISERROR(SEARCH("00",AF1)))</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" operator="beginsWith" text="0">
-      <formula>LEFT(AF1,LEN("0"))="0"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="6" operator="beginsWith" text="1">
-      <formula>LEFT(AF1,LEN("1"))="1"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
